--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>username</t>
   </si>
@@ -68,6 +68,12 @@
     <t>second_personal_account_iban</t>
   </si>
   <si>
+    <t>third_personal_account_iban</t>
+  </si>
+  <si>
+    <t>third_personal_account_name</t>
+  </si>
+  <si>
     <t>saving_account_iban</t>
   </si>
   <si>
@@ -120,6 +126,12 @@
   </si>
   <si>
     <t>205-9031004417882-84</t>
+  </si>
+  <si>
+    <t>205-9001007790944-88</t>
+  </si>
+  <si>
+    <t>Payment account with basic services</t>
   </si>
   <si>
     <t>205-9011008384007-23</t>
@@ -159,7 +171,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +197,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -192,6 +205,11 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -652,128 +670,128 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,6 +811,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1114,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1130,16 +1151,17 @@
     <col min="9" max="9" width="11.287037037037" style="1" customWidth="1"/>
     <col min="10" max="10" width="23.4259259259259" style="1" customWidth="1"/>
     <col min="11" max="13" width="30.4259259259259" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.8888888888889" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24.6666666666667" style="1" customWidth="1"/>
-    <col min="16" max="17" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="18" max="18" width="31.1111111111111" style="1" customWidth="1"/>
-    <col min="19" max="21" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="22" max="22" width="31.1111111111111" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.88888888888889" style="1"/>
+    <col min="14" max="14" width="38" style="1" customWidth="1"/>
+    <col min="15" max="16" width="21.8888888888889" style="1" customWidth="1"/>
+    <col min="17" max="17" width="24.6666666666667" style="1" customWidth="1"/>
+    <col min="18" max="19" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="20" max="20" width="31.1111111111111" style="1" customWidth="1"/>
+    <col min="21" max="23" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="24" max="24" width="31.1111111111111" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:20">
+    <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1179,19 +1201,19 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -1200,19 +1222,25 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:20">
+    <row r="2" s="1" customFormat="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1">
         <v>1379</v>
@@ -1221,56 +1249,60 @@
         <v>1111</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1">
         <v>1379</v>
@@ -1279,19 +1311,19 @@
         <v>1111</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="3:7">

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>username</t>
   </si>
@@ -77,6 +77,9 @@
     <t>saving_account_iban</t>
   </si>
   <si>
+    <t>search_purpose</t>
+  </si>
+  <si>
     <t>saving_account_name</t>
   </si>
   <si>
@@ -135,6 +138,9 @@
   </si>
   <si>
     <t>205-9011008384007-23</t>
+  </si>
+  <si>
+    <t>Naknada za TR</t>
   </si>
   <si>
     <t>A vista deposit account</t>
@@ -791,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,9 +811,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1135,10 +1138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1153,15 +1156,15 @@
     <col min="11" max="13" width="30.4259259259259" style="1" customWidth="1"/>
     <col min="14" max="14" width="38" style="1" customWidth="1"/>
     <col min="15" max="16" width="21.8888888888889" style="1" customWidth="1"/>
-    <col min="17" max="17" width="24.6666666666667" style="1" customWidth="1"/>
-    <col min="18" max="19" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="20" max="20" width="31.1111111111111" style="1" customWidth="1"/>
-    <col min="21" max="23" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="24" max="24" width="31.1111111111111" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88888888888889" style="1"/>
+    <col min="17" max="18" width="24.6666666666667" style="1" customWidth="1"/>
+    <col min="19" max="20" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="21" max="21" width="31.1111111111111" style="1" customWidth="1"/>
+    <col min="22" max="25" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="26" max="26" width="31.1111111111111" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
+    <row r="1" s="1" customFormat="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,13 +1213,13 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -1228,19 +1231,23 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="6"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:22">
+    <row r="2" s="1" customFormat="1" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1">
         <v>1379</v>
@@ -1249,60 +1256,63 @@
         <v>1111</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="V2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1">
         <v>1379</v>
@@ -1311,19 +1321,19 @@
         <v>1111</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="3:7">

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="309">
   <si>
     <t>username</t>
   </si>
@@ -56,10 +56,49 @@
     <t>currentEnv</t>
   </si>
   <si>
+    <t>user_name_for_payment_review</t>
+  </si>
+  <si>
+    <t>user_address_for_payment_review</t>
+  </si>
+  <si>
+    <t>user_address_for_payment_review_for_personal_account</t>
+  </si>
+  <si>
+    <t>user_address_for_past_payment_as_debtor_address</t>
+  </si>
+  <si>
+    <t>user_name_for_payment_details</t>
+  </si>
+  <si>
+    <t>username_and_address</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>personal_account_name</t>
+  </si>
+  <si>
     <t>personal_account_iban</t>
   </si>
   <si>
-    <t>personal_account_name</t>
+    <t>personal_account_details_owner</t>
+  </si>
+  <si>
+    <t>personal_account_BIC</t>
+  </si>
+  <si>
+    <t>personal_account_payment_address</t>
+  </si>
+  <si>
+    <t>personal_account_debit_card_number</t>
+  </si>
+  <si>
+    <t>personal_account_debit_card_expiry_date</t>
+  </si>
+  <si>
+    <t>personal_account_debit_card_owner</t>
   </si>
   <si>
     <t>second_personal_account_name</t>
@@ -68,34 +107,448 @@
     <t>second_personal_account_iban</t>
   </si>
   <si>
-    <t>third_personal_account_iban</t>
-  </si>
-  <si>
-    <t>third_personal_account_name</t>
-  </si>
-  <si>
-    <t>saving_account_iban</t>
-  </si>
-  <si>
-    <t>search_purpose</t>
-  </si>
-  <si>
-    <t>saving_account_name</t>
-  </si>
-  <si>
-    <t>credit_card_name</t>
+    <t>second_personal_card_name</t>
+  </si>
+  <si>
+    <t>second_personal_card_number</t>
+  </si>
+  <si>
+    <t>second_personal_account_user_name_for_payment_review</t>
+  </si>
+  <si>
+    <t>auth_personal_account_name</t>
+  </si>
+  <si>
+    <t>auth_personal_account_iban</t>
+  </si>
+  <si>
+    <t>auth_personal_account_name_second_payment_screen</t>
+  </si>
+  <si>
+    <t>auth_username_and_address</t>
+  </si>
+  <si>
+    <t>auth_user_name_for_payment_review</t>
+  </si>
+  <si>
+    <t>auth_user_address_for_payment_review</t>
+  </si>
+  <si>
+    <t>auth_user_address_for_past_payment_as_debtor_address</t>
+  </si>
+  <si>
+    <t>auth_user_name_for_payment_details</t>
+  </si>
+  <si>
+    <t>auth_personal_account_payment_address</t>
+  </si>
+  <si>
+    <t>savings_account_name</t>
+  </si>
+  <si>
+    <t>savings_account_iban</t>
+  </si>
+  <si>
+    <t>savings_account_details_owner</t>
+  </si>
+  <si>
+    <t>savings_account_details_opening_date</t>
+  </si>
+  <si>
+    <t>savings_user_name_for_payment_review</t>
+  </si>
+  <si>
+    <t>savings_user_address_for_payment_review</t>
+  </si>
+  <si>
+    <t>savings_username_and_address</t>
+  </si>
+  <si>
+    <t>savings_username_and_address_for_past_payments</t>
+  </si>
+  <si>
+    <t>savings_user_address_for_past_payment_as_debtor_address</t>
+  </si>
+  <si>
+    <t>savings_user_name_for_payment_details</t>
+  </si>
+  <si>
+    <t>savings_user_name_for_past_payment</t>
+  </si>
+  <si>
+    <t>second_savings_account_name</t>
+  </si>
+  <si>
+    <t>second_savings_account_iban</t>
+  </si>
+  <si>
+    <t>auth_savings_account_name</t>
+  </si>
+  <si>
+    <t>auth_savings_account_iban</t>
+  </si>
+  <si>
+    <t>auth_savings_user_name_for_payment_review</t>
+  </si>
+  <si>
+    <t>auth_savings_user_address_for_payment_review</t>
+  </si>
+  <si>
+    <t>auth_gradual_savings_account_name</t>
+  </si>
+  <si>
+    <t>auth_gradual_savings_account_iban</t>
+  </si>
+  <si>
+    <t>financial_instruments_trading_account_name</t>
+  </si>
+  <si>
+    <t>financial_instruments_trading_account_detailed_name</t>
+  </si>
+  <si>
+    <t>financial_instruments_trading_account_details_name</t>
+  </si>
+  <si>
+    <t>financial_instruments_trading_account_details_address</t>
+  </si>
+  <si>
+    <t>financial_instruments_trading_account_details_account_number</t>
+  </si>
+  <si>
+    <t>financial_instruments_trading_account_details_opening_date</t>
+  </si>
+  <si>
+    <t>financial_instruments_trading_account_details_email</t>
+  </si>
+  <si>
+    <t>auth_financial_instruments_trading_account_name</t>
+  </si>
+  <si>
+    <t>auth_financial_instruments_trading_account_detailed_name</t>
+  </si>
+  <si>
+    <t>financial_instruments_custody_account_name</t>
+  </si>
+  <si>
+    <t>financial_instruments_custody_account_detailed_name</t>
+  </si>
+  <si>
+    <t>auth_financial_instruments_custody_account_name</t>
+  </si>
+  <si>
+    <t>auth_financial_instruments_custody_account_detailed_name</t>
+  </si>
+  <si>
+    <t>gradual_savings_account_name</t>
+  </si>
+  <si>
+    <t>gradual_savings_account_iban</t>
+  </si>
+  <si>
+    <t>gradual_savings_user_name_for_payment_review</t>
+  </si>
+  <si>
+    <t>gradual_savings_user_address_for_payment_review</t>
+  </si>
+  <si>
+    <t>gradual_savings_username_and_address</t>
+  </si>
+  <si>
+    <t>gradual_savings_account_details_owner</t>
+  </si>
+  <si>
+    <t>gradual_savings_account_details_opening_date</t>
+  </si>
+  <si>
+    <t>gradual_savings_account_details_expiration_date</t>
+  </si>
+  <si>
+    <t>insurance_account_name</t>
+  </si>
+  <si>
+    <t>insurance_account_detailed_name</t>
+  </si>
+  <si>
+    <t>insurance_account_details_insurer</t>
+  </si>
+  <si>
+    <t>insurance_account_details_policy_number</t>
+  </si>
+  <si>
+    <t>insurance_account_details_opening_date</t>
+  </si>
+  <si>
+    <t>insurance_account_details_starting_date</t>
+  </si>
+  <si>
+    <t>insurance_account_details_closing_date</t>
+  </si>
+  <si>
+    <t>loan_account_name</t>
   </si>
   <si>
     <t>loan_account_iban</t>
   </si>
   <si>
-    <t>loan_account_name</t>
+    <t>corporate_recipient_name</t>
+  </si>
+  <si>
+    <t>corporate_recipient_iban</t>
+  </si>
+  <si>
+    <t>corporate_recipient_full_address_payment_preview</t>
+  </si>
+  <si>
+    <t>corporate_recipient_name_and_address_past_payment</t>
+  </si>
+  <si>
+    <t>corporate_recipient_address</t>
+  </si>
+  <si>
+    <t>corporate_recipient_city</t>
+  </si>
+  <si>
+    <t>corporate_recipient_country</t>
+  </si>
+  <si>
+    <t>retail_recipient_name</t>
+  </si>
+  <si>
+    <t>retail_recipient_name_for_modify</t>
+  </si>
+  <si>
+    <t>retail_recipient_iban</t>
+  </si>
+  <si>
+    <t>retail_recipient_full_address_payment_preview</t>
+  </si>
+  <si>
+    <t>retail_recipient_full_address_payment_preview_for_modify</t>
+  </si>
+  <si>
+    <t>retail_recipient_name_and_address_past_payment</t>
+  </si>
+  <si>
+    <t>retail_recipient_name_and_address_past_payment_for_modify</t>
+  </si>
+  <si>
+    <t>correctly_sorted_products</t>
+  </si>
+  <si>
+    <t>address_book_products</t>
+  </si>
+  <si>
+    <t>available_debtor_accounts</t>
+  </si>
+  <si>
+    <t>deposit_account_name</t>
+  </si>
+  <si>
+    <t>deposit_account_iban</t>
+  </si>
+  <si>
+    <t>united_kingdom_iban</t>
+  </si>
+  <si>
+    <t>united_kingdom_name</t>
+  </si>
+  <si>
+    <t>united_kingdom_full_address_payment_preview</t>
+  </si>
+  <si>
+    <t>united_kingdom_recipient_name_and_address_past_payment</t>
+  </si>
+  <si>
+    <t>united_kingdom_bank_name_payment_preview</t>
+  </si>
+  <si>
+    <t>united_kingdom_bank_address_payment_preview</t>
+  </si>
+  <si>
+    <t>united_kingdom_additional_info_payment_preview</t>
+  </si>
+  <si>
+    <t>bosnia_iban</t>
+  </si>
+  <si>
+    <t>bosnia_name</t>
+  </si>
+  <si>
+    <t>bosnia_full_address_payment_preview</t>
+  </si>
+  <si>
+    <t>bosnia_bank_address_payment_preview</t>
+  </si>
+  <si>
+    <t>bosnia_recipient_name_and_address_past_payment</t>
+  </si>
+  <si>
+    <t>nlb_funds_account_name</t>
+  </si>
+  <si>
+    <t>nlb_funds_account_detailed_name</t>
+  </si>
+  <si>
+    <t>nlb_funds_account_details_owner</t>
+  </si>
+  <si>
+    <t>nlb_funds_account_details_form_number</t>
+  </si>
+  <si>
+    <t>nlb_funds_account_details_subfund_account_number</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
+    <t>tag2</t>
+  </si>
+  <si>
+    <t>new_tag</t>
+  </si>
+  <si>
+    <t>personal_account_details</t>
+  </si>
+  <si>
+    <t>credit_card_premium_visa_one_name</t>
+  </si>
+  <si>
+    <t>credit_card_premium_visa_one_iban</t>
+  </si>
+  <si>
+    <t>credit_card_premium_visa_one_card_holder_name</t>
+  </si>
+  <si>
+    <t>credit_card_premium_visa_one_billing_day</t>
+  </si>
+  <si>
+    <t>credit_card_premium_visa_one_settlement_day</t>
+  </si>
+  <si>
+    <t>credit_card_premium_visa_one_valid_through</t>
+  </si>
+  <si>
+    <t>credit_card_premium_visa_two_name</t>
+  </si>
+  <si>
+    <t>credit_card_premium_visa_two_iban</t>
+  </si>
+  <si>
+    <t>user_name_short</t>
+  </si>
+  <si>
+    <t>auth_user_name_short</t>
+  </si>
+  <si>
+    <t>user_street_short</t>
+  </si>
+  <si>
+    <t>user_city_short</t>
+  </si>
+  <si>
+    <t>user_country_short</t>
+  </si>
+  <si>
+    <t>user_street_number</t>
+  </si>
+  <si>
+    <t>user_street_only_short</t>
+  </si>
+  <si>
+    <t>user_postal_code</t>
+  </si>
+  <si>
+    <t>personal_account_foreign_currencies</t>
+  </si>
+  <si>
+    <t>sepa_contact_name</t>
+  </si>
+  <si>
+    <t>sepa_contact_iban</t>
+  </si>
+  <si>
+    <t>foreign_contact_name</t>
+  </si>
+  <si>
+    <t>foreign_contact_iban</t>
   </si>
   <si>
     <t>term_deposit_iban</t>
   </si>
   <si>
-    <t>term_deposit_name</t>
+    <t>term_deposit_account_details_owner</t>
+  </si>
+  <si>
+    <t>term_deposit_account_details_opening_date</t>
+  </si>
+  <si>
+    <t>term_deposit_account_details_expiration_date</t>
+  </si>
+  <si>
+    <t>shared_account_iban</t>
+  </si>
+  <si>
+    <t>shared_account_name</t>
+  </si>
+  <si>
+    <t>e_invoice_marked_as_paid_purpose</t>
+  </si>
+  <si>
+    <t>e_invoice_marked_as_paid_amount</t>
+  </si>
+  <si>
+    <t>e_invoice_in_rejection_purpose</t>
+  </si>
+  <si>
+    <t>e_invoice_in_rejection_amount</t>
+  </si>
+  <si>
+    <t>e_invoice_rejected_purpose</t>
+  </si>
+  <si>
+    <t>e_invoice_rejected_amount</t>
+  </si>
+  <si>
+    <t>e_invoice_payment_sent_purpose</t>
+  </si>
+  <si>
+    <t>e_invoice_payment_sent_amount</t>
+  </si>
+  <si>
+    <t>psd2_user_selection_business_account_one</t>
+  </si>
+  <si>
+    <t>psd2_user_selection_business_name_one</t>
+  </si>
+  <si>
+    <t>psd2_user_selection_business_iban_one</t>
+  </si>
+  <si>
+    <t>psd2_user_selection_business_account_two</t>
+  </si>
+  <si>
+    <t>psd2_user_selection_business_account_three</t>
+  </si>
+  <si>
+    <t>vop_recipient_iban</t>
+  </si>
+  <si>
+    <t>vop_recipient_name</t>
+  </si>
+  <si>
+    <t>vop_recipient_short</t>
+  </si>
+  <si>
+    <t>vop_legal_entity_name</t>
+  </si>
+  <si>
+    <t>vop_legal_entity_iban</t>
+  </si>
+  <si>
+    <t>vop_correct_contact_name</t>
+  </si>
+  <si>
+    <t>vop_correct_contact_iban</t>
   </si>
   <si>
     <t>Osir ANOEV</t>
@@ -119,52 +572,424 @@
     <t>uat</t>
   </si>
   <si>
-    <t>205-9031004419532-81</t>
-  </si>
-  <si>
-    <t>Foreign currency payment accounts</t>
+    <t>ART02  UAT DBP</t>
+  </si>
+  <si>
+    <t>BERNEKERJEVA ULICA 24
+LJUBLJANA
+SLOVENIA</t>
+  </si>
+  <si>
+    <t>BERNEKERJEVA ULICA 24 LJUBLJANA SLOVENIA</t>
+  </si>
+  <si>
+    <t>ART02  UAT DBP
+BERNEKERJEVA ULICA 24
+LJUBLJANA
+SLOVENIA</t>
+  </si>
+  <si>
+    <t>Paket Premium</t>
+  </si>
+  <si>
+    <t>SI56 0223 3144 3074 626</t>
+  </si>
+  <si>
+    <t>DBP ART02  UAT</t>
+  </si>
+  <si>
+    <t>LJBASI2X</t>
+  </si>
+  <si>
+    <t>BERNEKERJEVA ULICA 24</t>
+  </si>
+  <si>
+    <t>5484 17** **** 3673</t>
+  </si>
+  <si>
+    <t>08/29</t>
+  </si>
+  <si>
+    <t>DBP ART DVA</t>
+  </si>
+  <si>
+    <t>Devizni platni račun</t>
+  </si>
+  <si>
+    <t>205-9031004417882-84</t>
+  </si>
+  <si>
+    <t>Visa revolving card</t>
+  </si>
+  <si>
+    <t>4176 **** **** 8476</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>NLB Klasični račun (DBP TEST USER 21)</t>
+  </si>
+  <si>
+    <t>SI56 0223 3144 3083 550</t>
   </si>
   <si>
     <t>NLB Klasicni racun</t>
   </si>
   <si>
-    <t>205-9031004417882-84</t>
-  </si>
-  <si>
-    <t>205-9001007790944-88</t>
-  </si>
-  <si>
-    <t>Payment account with basic services</t>
-  </si>
-  <si>
-    <t>205-9011008384007-23</t>
-  </si>
-  <si>
-    <t>Naknada za TR</t>
-  </si>
-  <si>
-    <t>A vista deposit account</t>
-  </si>
-  <si>
-    <t>Visa prepaid</t>
+    <t>USER  21 DBP TEST
+BERNEKERJEVA ULICA 24
+LJUBLJANA
+SLOVENIA</t>
+  </si>
+  <si>
+    <t>USER  21 DBP TEST</t>
+  </si>
+  <si>
+    <t>NLB Varcevalni racun</t>
+  </si>
+  <si>
+    <t>SI56 0223 3144 3074 917</t>
+  </si>
+  <si>
+    <t>7. 8. 2024</t>
+  </si>
+  <si>
+    <t>ART02 DBP UAT
+BERNEKERJEVA ULICA 24
+LJUBLJANA
+SLOVENIA</t>
+  </si>
+  <si>
+    <t>ART02 DBP UAT</t>
+  </si>
+  <si>
+    <t>NLB Varcevalni racun (DBP TEST USER 21)</t>
+  </si>
+  <si>
+    <t>SI56 0223 3144 3083 744</t>
+  </si>
+  <si>
+    <t>NLB Postopno varcevanje DBP TEST USER  21</t>
+  </si>
+  <si>
+    <t>SI56 0223 3144 3083 647</t>
+  </si>
+  <si>
+    <t>Financni instrumenti</t>
+  </si>
+  <si>
+    <t>Trgovalni račun</t>
+  </si>
+  <si>
+    <t>DBP ART02 UAT</t>
+  </si>
+  <si>
+    <t>BERNEKERJEVA ULICA 24
+1000 LJUBLJANA</t>
+  </si>
+  <si>
+    <t>10. 9. 2024</t>
+  </si>
+  <si>
+    <t>TESTART02@NLB.SI</t>
+  </si>
+  <si>
+    <t>NLB Postopno varcevanje</t>
+  </si>
+  <si>
+    <t>SI56 0216 5800 3382 346</t>
+  </si>
+  <si>
+    <t>ART02 UAT DBP</t>
+  </si>
+  <si>
+    <t>ART02 UAT DBP
+BERNEKERJEVA ULICA 24
+LJUBLJANA
+SLOVENIA</t>
+  </si>
+  <si>
+    <t>21. 2. 2025</t>
+  </si>
+  <si>
+    <t>21. 2. 2026</t>
+  </si>
+  <si>
+    <t>Zavarovanja</t>
+  </si>
+  <si>
+    <t>NLB Vita Varčevanje +</t>
+  </si>
+  <si>
+    <t>Saša IUAT4</t>
+  </si>
+  <si>
+    <t>14. 12. 2017</t>
+  </si>
+  <si>
+    <t>15. 12. 2017</t>
+  </si>
+  <si>
+    <t>Life-insurance</t>
+  </si>
+  <si>
+    <t>ENERGETIKA LJUBLJANA, D.O.O.</t>
+  </si>
+  <si>
+    <t>SI56 0292 4025 3764 022</t>
+  </si>
+  <si>
+    <t>VEROVŠKOVA ULICA 62,LJUBLJANA,SLOVENIA</t>
+  </si>
+  <si>
+    <t>ENERGETIKA LJUBLJANA, D.O.O.
+VEROVŠKOVA ULICA 62
+LJUBLJANA
+SLOVENIA</t>
+  </si>
+  <si>
+    <t>VEROVŠKOVA ULICA</t>
+  </si>
+  <si>
+    <t>LJUBLJANA</t>
+  </si>
+  <si>
+    <t>SLOVENIA</t>
+  </si>
+  <si>
+    <t>TESTNAME</t>
+  </si>
+  <si>
+    <t>TESTNAME2</t>
+  </si>
+  <si>
+    <t>SI56 0201 0275 3253 980</t>
+  </si>
+  <si>
+    <t>TEST
+TEST
+SLOVENIA</t>
+  </si>
+  <si>
+    <t>TEST2,TEST2,SLOVENIA</t>
+  </si>
+  <si>
+    <t>TESTNAME
+TEST
+TEST
+SLOVENIA</t>
+  </si>
+  <si>
+    <t>TESTNAME2  TEST2  TEST2  SLOVENIA</t>
+  </si>
+  <si>
+    <t>SI56 0223 3144 3074 626,SI56 0223 3144 3074 723,SI56 0223 3144 3083 550,SI56 0223 3144 3079 476,SI56 0223 3144 3074 917,SI56 0223 3144 3083 744,SI56 0223 3144 3074 820,SI56 0216 5800 3382 346,SI56 0223 3144 3083 647,8003 3822,Trgovalni račun,NLB Varčevanje Vita plus,NLB Varčevanje Vita plus,NLB Vita Varčevanje +,</t>
+  </si>
+  <si>
+    <t>Term deposits</t>
   </si>
   <si>
     <t>205-9032022325800-66</t>
   </si>
   <si>
-    <t>Term deposits</t>
-  </si>
-  <si>
-    <t>Jail ĆEVGIMILĆ</t>
-  </si>
-  <si>
-    <t>XXXXXXXXXX03</t>
-  </si>
-  <si>
-    <t>205-0049032401456-48</t>
-  </si>
-  <si>
-    <t>Cash loans</t>
+    <t>GB68 BARC 2087 9493 7713 26</t>
+  </si>
+  <si>
+    <t>GBCONTACT</t>
+  </si>
+  <si>
+    <t>TEST
+TEST
+UNITED KINGDOM</t>
+  </si>
+  <si>
+    <t>GBCONTACT
+TEST
+TEST
+UNITED KINGDOM</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>BA39 5620 9981 6539 5407</t>
+  </si>
+  <si>
+    <t>BOSNIANAME</t>
+  </si>
+  <si>
+    <t>TEST
+TEST
+BOSNIA AND HERZEGOVINA</t>
+  </si>
+  <si>
+    <t>BOSNIANAME
+TEST
+TEST
+BOSNIA AND HERZEGOVINA</t>
+  </si>
+  <si>
+    <t>NLB Skladi</t>
+  </si>
+  <si>
+    <t>NLB Skladi - Azija delniški</t>
+  </si>
+  <si>
+    <t>MARJETICA VAŠLOV</t>
+  </si>
+  <si>
+    <t>SI56 0290 5026 2166 608</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>newtag1234</t>
+  </si>
+  <si>
+    <t>Account type: Current account
+Account owner: DBP ART02  UAT
+Account number: SI56 0223 3144 3074 626
+BIC: LJBASI2X</t>
+  </si>
+  <si>
+    <t>NLB Premium Visa</t>
+  </si>
+  <si>
+    <t>474819******0671</t>
+  </si>
+  <si>
+    <t>DBP ART FOUR</t>
+  </si>
+  <si>
+    <t>20th of month</t>
+  </si>
+  <si>
+    <t>28th of month</t>
+  </si>
+  <si>
+    <t>30. 11. 2028</t>
+  </si>
+  <si>
+    <t>474819******5472</t>
+  </si>
+  <si>
+    <t>ART02</t>
+  </si>
+  <si>
+    <t>USER  21</t>
+  </si>
+  <si>
+    <t>BERNEKERJEVA ULICA</t>
+  </si>
+  <si>
+    <t>AUDHUFCHFNOKCADGBPUSD</t>
+  </si>
+  <si>
+    <t>ACONTACT</t>
+  </si>
+  <si>
+    <t>SI56 0223 3144 3075 111</t>
+  </si>
+  <si>
+    <t>BCONTACT</t>
+  </si>
+  <si>
+    <t>BA39 1543 0599 8975 2592</t>
+  </si>
+  <si>
+    <t>8003 3822</t>
+  </si>
+  <si>
+    <t>SI56 0223 3144 3079 476</t>
+  </si>
+  <si>
+    <t>Paket Premium GROUP UAT AUTH</t>
+  </si>
+  <si>
+    <t>PLAČILO PREDRAČUNA ŠT:P5</t>
+  </si>
+  <si>
+    <t>4,93</t>
+  </si>
+  <si>
+    <t>PLAČILO OPOMINA ŠT:O6</t>
+  </si>
+  <si>
+    <t>9,86</t>
+  </si>
+  <si>
+    <t>PLAČILO RAČUNA ŠT:E12</t>
+  </si>
+  <si>
+    <t>6,70</t>
+  </si>
+  <si>
+    <t>PLAČILO RAČUNA ŠT:E3</t>
+  </si>
+  <si>
+    <t>9,38</t>
+  </si>
+  <si>
+    <t>ŠPORTNO DRUŠTVO GOLOVEC - 020600010682454</t>
+  </si>
+  <si>
+    <t>NLB Poslovni račun (ŠPORTNO DRUŠTVO GOLOVEC)</t>
+  </si>
+  <si>
+    <t>SI56 0206 0001 0682 454</t>
+  </si>
+  <si>
+    <t>DOM EFEKT D.O.O. - 020130010773512</t>
+  </si>
+  <si>
+    <t>DOM EFEKT D.O.O. - 020130254150877</t>
+  </si>
+  <si>
+    <t>SI56 0201 0280 7279 585</t>
+  </si>
+  <si>
+    <t>DANICA LUTMAN</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>NLB D.D.</t>
+  </si>
+  <si>
+    <t>SI56 0290 0000 0200 020</t>
+  </si>
+  <si>
+    <t>V&amp;D INVESTICIJSKO ZLATO D.O.O.</t>
+  </si>
+  <si>
+    <t>SI56 0205 3025 7703 191</t>
+  </si>
+  <si>
+    <t>Drre ĆEVMI</t>
+  </si>
+  <si>
+    <t>Tekući račun</t>
+  </si>
+  <si>
+    <t>205-9001001626239-86</t>
+  </si>
+  <si>
+    <t>15.12.2017</t>
+  </si>
+  <si>
+    <t>NLB Depozit</t>
+  </si>
+  <si>
+    <t>DBP ART02</t>
+  </si>
+  <si>
+    <t>SI56 0223 3144 3074 723</t>
   </si>
 </sst>
 </file>
@@ -177,7 +1002,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,7 +1015,15 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,23 +1033,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -670,134 +1486,134 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,13 +1626,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1138,33 +1951,127 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:FR6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="17.712962962963" style="1" customWidth="1"/>
-    <col min="2" max="5" width="11.712962962963" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1388888888889" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.71296296296296" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.287037037037" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.4259259259259" style="1" customWidth="1"/>
-    <col min="11" max="13" width="30.4259259259259" style="1" customWidth="1"/>
-    <col min="14" max="14" width="38" style="1" customWidth="1"/>
-    <col min="15" max="16" width="21.8888888888889" style="1" customWidth="1"/>
-    <col min="17" max="18" width="24.6666666666667" style="1" customWidth="1"/>
-    <col min="19" max="20" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="21" max="21" width="31.1111111111111" style="1" customWidth="1"/>
-    <col min="22" max="25" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="26" max="26" width="31.1111111111111" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
+    <col min="2" max="5" width="11.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1296296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.6296296296296" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.75" style="1" customWidth="1"/>
+    <col min="12" max="13" width="52.8796296296296" style="1" customWidth="1"/>
+    <col min="14" max="15" width="57.6296296296296" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="24.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.3796296296296" style="1" customWidth="1"/>
+    <col min="19" max="26" width="30.3796296296296" style="1" customWidth="1"/>
+    <col min="27" max="30" width="50" style="1" customWidth="1"/>
+    <col min="31" max="31" width="29.1296296296296" style="1" customWidth="1"/>
+    <col min="32" max="33" width="82.8796296296296" style="1" customWidth="1"/>
+    <col min="34" max="34" width="39.25" style="1" customWidth="1"/>
+    <col min="35" max="35" width="48.25" style="1" customWidth="1"/>
+    <col min="36" max="36" width="58.6296296296296" style="1" customWidth="1"/>
+    <col min="37" max="37" width="39.1296296296296" style="1" customWidth="1"/>
+    <col min="38" max="39" width="23.25" style="1" customWidth="1"/>
+    <col min="40" max="40" width="22" style="1" customWidth="1"/>
+    <col min="41" max="44" width="44" style="1" customWidth="1"/>
+    <col min="45" max="45" width="54" style="1" customWidth="1"/>
+    <col min="46" max="52" width="29" style="1" customWidth="1"/>
+    <col min="53" max="53" width="27.75" style="1" customWidth="1"/>
+    <col min="54" max="54" width="47.6296296296296" style="1" customWidth="1"/>
+    <col min="55" max="55" width="49.75" style="1" customWidth="1"/>
+    <col min="56" max="58" width="29" style="1" customWidth="1"/>
+    <col min="59" max="59" width="55.3796296296296" style="1" customWidth="1"/>
+    <col min="60" max="65" width="46.6296296296296" style="1" customWidth="1"/>
+    <col min="66" max="66" width="61.1296296296296" style="1" customWidth="1"/>
+    <col min="67" max="67" width="46.6296296296296" style="1" customWidth="1"/>
+    <col min="68" max="68" width="56.1296296296296" style="1" customWidth="1"/>
+    <col min="69" max="69" width="52.25" style="1" customWidth="1"/>
+    <col min="70" max="70" width="61.75" style="1" customWidth="1"/>
+    <col min="71" max="71" width="31.8796296296296" style="1" customWidth="1"/>
+    <col min="72" max="72" width="30.6296296296296" style="1" customWidth="1"/>
+    <col min="73" max="73" width="50.3796296296296" style="1" customWidth="1"/>
+    <col min="74" max="79" width="25.75" style="1" customWidth="1"/>
+    <col min="80" max="80" width="35.25" style="1" customWidth="1"/>
+    <col min="81" max="86" width="20.3796296296296" style="1" customWidth="1"/>
+    <col min="87" max="87" width="19.1296296296296" style="1" customWidth="1"/>
+    <col min="88" max="88" width="31.75" style="1" customWidth="1"/>
+    <col min="89" max="89" width="24.1296296296296" style="1" customWidth="1"/>
+    <col min="90" max="92" width="29.1296296296296" style="1" customWidth="1"/>
+    <col min="93" max="93" width="24.1296296296296" style="1" customWidth="1"/>
+    <col min="94" max="94" width="29" style="1" customWidth="1"/>
+    <col min="95" max="95" width="24.1296296296296" style="1" customWidth="1"/>
+    <col min="96" max="96" width="34.8796296296296" style="1" customWidth="1"/>
+    <col min="97" max="102" width="24.1296296296296" style="1" customWidth="1"/>
+    <col min="103" max="103" width="22.25" style="1" customWidth="1"/>
+    <col min="104" max="104" width="25.3796296296296" style="1" customWidth="1"/>
+    <col min="105" max="105" width="23.75" style="1" customWidth="1"/>
+    <col min="106" max="106" width="22.3796296296296" style="1" customWidth="1"/>
+    <col min="107" max="107" width="29" style="1" customWidth="1"/>
+    <col min="108" max="108" width="23.75" style="1" customWidth="1"/>
+    <col min="109" max="109" width="49.6296296296296" style="1" customWidth="1"/>
+    <col min="110" max="110" width="62.75" style="1" customWidth="1"/>
+    <col min="111" max="111" width="48.8796296296296" style="1" customWidth="1"/>
+    <col min="112" max="112" width="51" style="1" customWidth="1"/>
+    <col min="113" max="113" width="52.6296296296296" style="1" customWidth="1"/>
+    <col min="114" max="117" width="26" style="1" customWidth="1"/>
+    <col min="118" max="118" width="62.75" style="1" customWidth="1"/>
+    <col min="119" max="119" width="26" style="1" customWidth="1"/>
+    <col min="120" max="120" width="42.75" style="1" customWidth="1"/>
+    <col min="121" max="121" width="34.75" style="1" customWidth="1"/>
+    <col min="122" max="122" width="42.1296296296296" style="1" customWidth="1"/>
+    <col min="123" max="123" width="54.25" style="1" customWidth="1"/>
+    <col min="124" max="126" width="8.87962962962963" style="1"/>
+    <col min="127" max="127" width="33" style="1" customWidth="1"/>
+    <col min="128" max="128" width="38.6296296296296" style="1" customWidth="1"/>
+    <col min="129" max="129" width="37.25" style="1" customWidth="1"/>
+    <col min="130" max="134" width="38.6296296296296" style="1" customWidth="1"/>
+    <col min="135" max="135" width="37.25" style="1" customWidth="1"/>
+    <col min="136" max="136" width="17.8796296296296" style="1" customWidth="1"/>
+    <col min="137" max="137" width="23.3796296296296" style="1" customWidth="1"/>
+    <col min="138" max="138" width="24.3796296296296" style="1" customWidth="1"/>
+    <col min="139" max="139" width="15.75" style="1" customWidth="1"/>
+    <col min="140" max="140" width="19.8796296296296" style="1" customWidth="1"/>
+    <col min="141" max="141" width="20.8796296296296" style="1" customWidth="1"/>
+    <col min="142" max="144" width="37.8796296296296" style="1" customWidth="1"/>
+    <col min="145" max="145" width="20.25" style="1" customWidth="1"/>
+    <col min="146" max="146" width="23.25" style="1" customWidth="1"/>
+    <col min="147" max="147" width="22.8796296296296" style="1" customWidth="1"/>
+    <col min="148" max="148" width="21.6296296296296" style="1" customWidth="1"/>
+    <col min="149" max="149" width="19.3796296296296" style="1" customWidth="1"/>
+    <col min="150" max="150" width="38.25" style="1" customWidth="1"/>
+    <col min="151" max="151" width="45.75" style="1" customWidth="1"/>
+    <col min="152" max="152" width="47.75" style="1" customWidth="1"/>
+    <col min="153" max="153" width="21.6296296296296" style="1" customWidth="1"/>
+    <col min="154" max="155" width="36.8796296296296" style="1" customWidth="1"/>
+    <col min="156" max="156" width="36.25" style="1" customWidth="1"/>
+    <col min="157" max="157" width="36.8796296296296" style="1" customWidth="1"/>
+    <col min="158" max="158" width="32.1296296296296" style="1" customWidth="1"/>
+    <col min="159" max="159" width="29" style="1" customWidth="1"/>
+    <col min="160" max="160" width="28.3796296296296" style="1" customWidth="1"/>
+    <col min="161" max="161" width="34.8796296296296" style="1" customWidth="1"/>
+    <col min="162" max="162" width="34.3796296296296" style="1" customWidth="1"/>
+    <col min="163" max="166" width="44.6296296296296" style="1" customWidth="1"/>
+    <col min="167" max="167" width="46.1296296296296" style="1" customWidth="1"/>
+    <col min="168" max="168" width="23.25" style="1" customWidth="1"/>
+    <col min="169" max="169" width="21.1296296296296" style="1" customWidth="1"/>
+    <col min="170" max="170" width="20.6296296296296" style="1" customWidth="1"/>
+    <col min="171" max="171" width="24" style="1" customWidth="1"/>
+    <col min="172" max="172" width="23.25" style="1" customWidth="1"/>
+    <col min="173" max="173" width="33.75" style="1" customWidth="1"/>
+    <col min="174" max="174" width="26" style="1" customWidth="1"/>
+    <col min="175" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:24">
+    <row r="1" spans="1:174">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,16 +2117,16 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -1234,20 +2141,472 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6"/>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:23">
+    <row r="2" ht="72" spans="1:174">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="E2" s="1">
         <v>1379</v>
@@ -1256,63 +2615,522 @@
         <v>1111</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>181</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>40</v>
+        <v>183</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1379</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>41</v>
+        <v>191</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>78293</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BV2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW2" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>10297999</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="CM2" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="CT2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="CV2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="CW2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CX2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CY2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="DB2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="DE2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="DF2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DH2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="DI2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL2" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="DM2" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="DN2" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="DR2" s="1">
+        <v>77890600</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DW2" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="DZ2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="EA2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="EB2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="EC2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="EF2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="EH2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="EJ2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="EK2" s="1">
+        <v>24</v>
+      </c>
+      <c r="EL2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="EM2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="EN2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="EO2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="EP2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="EQ2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="ER2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="ES2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="ET2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EU2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="EV2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="EW2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="EX2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="EY2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="EZ2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="FA2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="FB2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="FC2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="FD2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="FE2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="FF2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="FG2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="FH2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="FI2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="FJ2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="FK2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="FL2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="FM2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="FN2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="FO2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="FP2" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="FQ2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="FR2" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" ht="72" spans="1:174">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="E3" s="1">
         <v>1379</v>
@@ -1320,40 +3138,2076 @@
       <c r="F3" s="1">
         <v>1111</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>27</v>
+      <c r="G3" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>180</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1379</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>45</v>
+        <v>189</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>78293</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BV3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW3" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD3" s="1">
+        <v>10297999</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="CM3" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="CP3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="CQ3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="CS3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="CT3" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="CU3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="CV3" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="CW3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CX3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CY3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CZ3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="DB3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="DE3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="DF3" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="DG3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DH3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="DI3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL3" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="DM3" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="DN3" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="DR3" s="1">
+        <v>77890600</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="DT3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DW3" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="DX3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="DY3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="DZ3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="EA3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="EB3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="EC3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="ED3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="EE3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="EF3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="EG3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="EH3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="EI3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="EJ3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="EK3" s="1">
+        <v>24</v>
+      </c>
+      <c r="EL3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="EM3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="EN3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="EO3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="EP3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="EQ3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="ER3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="ES3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="ET3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EU3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="EV3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="EW3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="EX3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="EY3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="EZ3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="FA3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="FB3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="FC3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="FD3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="FE3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="FF3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="FG3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="FH3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="FI3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="FJ3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="FK3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="FL3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="FM3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="FN3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="FO3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="FP3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="FQ3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="FR3" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="2"/>
-      <c r="G4" s="2"/>
+    <row r="4" ht="72" spans="1:174">
+      <c r="A4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1379</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1111</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1379</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BI4" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>78293</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BL4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BU4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BV4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW4" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD4" s="1">
+        <v>10297999</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="CM4" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="CN4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="CP4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="CQ4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="CS4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="CT4" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="CU4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="CV4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="CW4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CX4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CY4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CZ4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="DB4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="DE4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="DF4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="DG4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DH4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="DI4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DJ4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="DK4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL4" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="DM4" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="DN4" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="DO4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="DP4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="DQ4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="DR4" s="1">
+        <v>77890600</v>
+      </c>
+      <c r="DS4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="DT4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DU4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DV4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DW4" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="DX4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="DY4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="DZ4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="EA4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="EB4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="EC4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="ED4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="EE4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="EF4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="EG4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="EH4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="EI4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="EJ4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="EK4" s="1">
+        <v>24</v>
+      </c>
+      <c r="EL4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="EM4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="EN4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="EO4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="EP4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="EQ4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="ER4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="ES4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="ET4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EU4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="EV4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="EW4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="EX4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="EY4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="EZ4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="FA4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="FB4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="FC4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="FD4" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="FE4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="FF4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="FG4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="FH4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="FI4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="FJ4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="FK4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="FL4" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="FM4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="FN4" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="FO4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="FP4" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="FQ4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="FR4" s="1" t="s">
+        <v>301</v>
+      </c>
     </row>
-    <row r="5" spans="3:7">
-      <c r="C5" s="2"/>
-      <c r="G5" s="2"/>
+    <row r="5" ht="72" spans="1:174">
+      <c r="A5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1379</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1111</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1379</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BI5" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>78293</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BL5" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BU5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BV5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW5" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CB5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD5" s="1">
+        <v>10297999</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CF5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CJ5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="CK5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="CL5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="CM5" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="CN5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="CP5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="CQ5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="CR5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="CS5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="CT5" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="CU5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="CV5" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="CW5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CX5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CY5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CZ5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DA5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="DB5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DD5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="DE5" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="DF5" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="DG5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DH5" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="DI5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DJ5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="DK5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL5" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="DM5" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="DN5" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="DO5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="DP5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="DQ5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="DR5" s="1">
+        <v>77890600</v>
+      </c>
+      <c r="DS5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="DT5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DU5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DV5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DW5" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="DX5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="DY5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="DZ5" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="EA5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="EB5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="EC5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="ED5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="EE5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="EF5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="EG5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="EH5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="EI5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="EJ5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="EK5" s="1">
+        <v>24</v>
+      </c>
+      <c r="EL5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="EM5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="EN5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="EO5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="EP5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="EQ5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="ER5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="ES5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="ET5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EU5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="EV5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="EW5" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="EX5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="EY5" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="EZ5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="FA5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="FB5" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="FC5" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="FD5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="FE5" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="FF5" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="FG5" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="FH5" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="FI5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="FJ5" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="FK5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="FL5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="FM5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="FN5" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="FO5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="FP5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="FQ5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="FR5" s="1" t="s">
+        <v>301</v>
+      </c>
     </row>
-    <row r="6" spans="3:7">
-      <c r="C6" s="2"/>
-      <c r="G6" s="2"/>
+    <row r="6" ht="72" spans="1:174">
+      <c r="A6" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1379</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1111</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1379</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BI6" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>78293</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BL6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BR6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BS6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BT6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BU6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BV6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW6" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="BX6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BY6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BZ6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="CA6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CB6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="CC6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD6" s="1">
+        <v>10297999</v>
+      </c>
+      <c r="CE6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CF6" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="CG6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="CH6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CJ6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="CK6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="CL6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="CM6" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="CN6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="CP6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="CQ6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="CR6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="CS6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="CT6" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="CU6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="CV6" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="CW6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CX6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CY6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CZ6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DA6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="DB6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="DD6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="DE6" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="DF6" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="DG6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DH6" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="DI6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DJ6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="DK6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL6" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="DM6" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="DN6" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="DO6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="DP6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="DQ6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="DR6" s="1">
+        <v>77890600</v>
+      </c>
+      <c r="DS6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="DT6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DU6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DV6" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DW6" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="DX6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="DY6" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="DZ6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="EA6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="EB6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="EC6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="ED6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="EE6" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="EF6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="EG6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="EH6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="EI6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="EJ6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="EK6" s="1">
+        <v>24</v>
+      </c>
+      <c r="EL6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="EM6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="EN6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="EO6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="EP6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="EQ6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="ER6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="ES6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="ET6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EU6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="EV6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="EW6" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="EX6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="EY6" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="EZ6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="FA6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="FB6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="FC6" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="FD6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="FE6" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="FF6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="FG6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="FH6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="FI6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="FJ6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="FK6" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="FL6" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="FM6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="FN6" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="FO6" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="FP6" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="FQ6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="FR6" s="1" t="s">
+        <v>301</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" display="https://uat.dbp.nlb.si/web-retail/login" tooltip="https://uat.dbp.nlb.si/web-retail/login"/>
+    <hyperlink ref="G5" r:id="rId1" display="https://uat.dbp.nlb.si/web-retail/login" tooltip="https://uat.dbp.nlb.si/web-retail/login"/>
+    <hyperlink ref="G4" r:id="rId1" display="https://uat.dbp.nlb.si/web-retail/login" tooltip="https://uat.dbp.nlb.si/web-retail/login"/>
+    <hyperlink ref="G3" r:id="rId1" display="https://uat.dbp.nlb.si/web-retail/login" tooltip="https://uat.dbp.nlb.si/web-retail/login"/>
     <hyperlink ref="G2" r:id="rId1" display="https://uat.dbp.nlb.si/web-retail/login" tooltip="https://uat.dbp.nlb.si/web-retail/login"/>
     <hyperlink ref="C2" r:id="rId2" display="JOVAN.JACOV@DTC.RS"/>
-    <hyperlink ref="G3" r:id="rId1" display="https://uat.dbp.nlb.si/web-retail/login" tooltip="https://uat.dbp.nlb.si/web-retail/login"/>
     <hyperlink ref="C3" r:id="rId2" display="JOVAN.JACOV@DTC.RS"/>
+    <hyperlink ref="C4" r:id="rId2" display="JOVAN.JACOV@DTC.RS"/>
+    <hyperlink ref="C5" r:id="rId2" display="JOVAN.JACOV@DTC.RS"/>
+    <hyperlink ref="C6" r:id="rId2" display="JOVAN.JACOV@DTC.RS"/>
+    <hyperlink ref="BL2" r:id="rId3" display="TESTART02@NLB.SI"/>
+    <hyperlink ref="BL3" r:id="rId3" display="TESTART02@NLB.SI"/>
+    <hyperlink ref="BL4" r:id="rId3" display="TESTART02@NLB.SI"/>
+    <hyperlink ref="BL5" r:id="rId3" display="TESTART02@NLB.SI"/>
+    <hyperlink ref="BL6" r:id="rId3" display="TESTART02@NLB.SI"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="321">
   <si>
     <t>username</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t>search_purpose</t>
+  </si>
+  <si>
+    <t>saving_account_iban</t>
   </si>
   <si>
     <t>Osir ANOEV</t>
@@ -987,6 +990,9 @@
   </si>
   <si>
     <t>Naknada za TR</t>
+  </si>
+  <si>
+    <t>205-9011008384007-23</t>
   </si>
   <si>
     <t>Drre ĆEVMI</t>
@@ -1032,7 +1038,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1055,6 +1061,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1516,13 +1528,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1531,119 +1540,122 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1660,6 +1672,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1981,10 +1996,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:FV7"/>
+  <dimension ref="A1:FW7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FT1" workbookViewId="0">
-      <selection activeCell="FV3" sqref="FV3"/>
+    <sheetView tabSelected="1" topLeftCell="FQ1" workbookViewId="0">
+      <selection activeCell="FV4" sqref="FV4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -2099,10 +2114,11 @@
     <col min="176" max="176" width="33.75" style="1" customWidth="1"/>
     <col min="177" max="177" width="26" style="1" customWidth="1"/>
     <col min="178" max="178" width="37.1111111111111" style="1" customWidth="1"/>
-    <col min="179" max="16384" width="8.87962962962963" style="1"/>
+    <col min="179" max="179" width="19.8888888888889" style="1" customWidth="1"/>
+    <col min="180" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:178">
+    <row r="1" spans="1:179">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2637,19 +2653,22 @@
       <c r="FV1" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="FW1" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="2" ht="72" spans="1:178">
+    <row r="2" ht="72" spans="1:179">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E2" s="1">
         <v>1379</v>
@@ -2658,531 +2677,534 @@
         <v>1111</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="O2" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P2" s="1">
         <v>1379</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV2" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AX2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BD2" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AP2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="BE2" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BK2" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BL2" s="1">
         <v>78293</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BU2" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BX2" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BY2" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CF2" s="1">
         <v>10297999</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="CI2" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CL2" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="CO2" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CP2" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CV2" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CW2" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CX2" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="CY2" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CZ2" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="DB2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="DC2" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="DD2" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="DF2" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="DG2" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="DH2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="DI2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="DJ2" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="DI2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="DJ2" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="DK2" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="DL2" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DM2" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DN2" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DO2" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DP2" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="DQ2" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="DR2" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="DS2" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DT2" s="1">
         <v>77890600</v>
       </c>
       <c r="DU2" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="DV2" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DW2" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="DX2" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="DY2" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="DZ2" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="EA2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="EB2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="EC2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="EF2" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="EB2" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="EC2" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="ED2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="EE2" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="EF2" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="EG2" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="EH2" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="EI2" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="EJ2" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="EK2" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="EL2" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="EM2" s="1">
         <v>24</v>
       </c>
       <c r="EN2" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="EO2" s="1">
         <v>1000</v>
       </c>
       <c r="EP2" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="EQ2" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="ER2" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="ES2" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="ET2" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="EU2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="EV2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="EV2" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="EW2" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EX2" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="EY2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="EZ2" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="FA2" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="FB2" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="FC2" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="FD2" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="FE2" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FF2" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="FG2" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="FH2" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="FI2" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="FJ2" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="FK2" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="FL2" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="FM2" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="FN2" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="FO2" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="FP2" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="FQ2" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="FR2" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="FS2" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="FT2" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="FU2" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="FV2" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
+      </c>
+      <c r="FW2" s="6" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="3" ht="72" spans="1:177">
       <c r="A3" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E3" s="1">
         <v>1379</v>
@@ -3191,516 +3213,516 @@
         <v>1111</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="O3" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P3" s="1">
         <v>1379</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV3" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="W3" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AX3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AL3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BD3" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AP3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="BE3" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BK3" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BL3" s="1">
         <v>78293</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BN3" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BX3" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BY3" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CF3" s="1">
         <v>10297999</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="CI3" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CM3" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="CO3" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CU3" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CV3" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CW3" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CX3" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="CY3" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CZ3" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="DB3" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="DC3" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="DD3" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="DF3" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="DG3" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="DH3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="DI3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="DJ3" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="DI3" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="DJ3" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="DK3" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DM3" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DN3" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DO3" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DP3" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="DQ3" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="DR3" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="DS3" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DT3" s="1">
         <v>77890600</v>
       </c>
       <c r="DU3" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="DV3" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DW3" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="DX3" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="DY3" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="DZ3" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="EA3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="EB3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="EC3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="ED3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="EE3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="EF3" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="EB3" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="EC3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="ED3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="EE3" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="EF3" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="EG3" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="EH3" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="EI3" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="EJ3" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="EK3" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="EL3" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="EM3" s="1">
         <v>24</v>
       </c>
       <c r="EN3" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="EO3" s="1">
         <v>1000</v>
       </c>
       <c r="EP3" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="EQ3" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="ER3" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="ES3" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="ET3" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="EU3" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="EW3" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EX3" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="EY3" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="EZ3" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="FA3" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="FB3" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="FC3" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="FD3" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="FE3" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FF3" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="FG3" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="FH3" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="FI3" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="FJ3" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="FK3" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="FL3" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="FM3" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="FN3" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="FO3" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="FP3" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="FQ3" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="FR3" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="FS3" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="FT3" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="FU3" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:177">
       <c r="A4" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E4" s="1">
         <v>1379</v>
@@ -3709,516 +3731,516 @@
         <v>1111</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="O4" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P4" s="1">
         <v>1379</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV4" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V4" s="1" t="s">
+      <c r="AW4" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="W4" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AX4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY4" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AL4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AZ4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BD4" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AP4" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AU4" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AV4" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="BE4" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BK4" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BL4" s="1">
         <v>78293</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BN4" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BO4" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BU4" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BX4" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BY4" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="CB4" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="CC4" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="CD4" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CE4" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CF4" s="1">
         <v>10297999</v>
       </c>
       <c r="CG4" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="CI4" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="CJ4" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="CM4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="CN4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="CO4" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="CP4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="CQ4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CS4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CU4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CV4" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="CW4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="CX4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="CY4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="CZ4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="DB4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="DD4" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="CK4" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="CL4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="CM4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="CN4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="CO4" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="CP4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="CQ4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="CR4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="CS4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="CT4" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="CU4" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="CV4" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="CW4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="CX4" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="CY4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="CZ4" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="DA4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="DB4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="DC4" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="DD4" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="DE4" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="DF4" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="DG4" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="DH4" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="DI4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="DJ4" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="DI4" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="DJ4" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="DK4" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="DL4" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DM4" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DN4" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DO4" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DP4" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="DQ4" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="DR4" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="DS4" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DT4" s="1">
         <v>77890600</v>
       </c>
       <c r="DU4" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="DV4" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DW4" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="DX4" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="DY4" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="DZ4" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="EA4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="EB4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="EC4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="ED4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="EE4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="EF4" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="EB4" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="EC4" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="ED4" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="EE4" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="EF4" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="EG4" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="EH4" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="EI4" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="EJ4" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="EK4" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="EL4" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="EM4" s="1">
         <v>24</v>
       </c>
       <c r="EN4" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="EO4" s="1">
         <v>1000</v>
       </c>
       <c r="EP4" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="EQ4" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="ER4" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="ES4" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="ET4" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="EU4" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="EW4" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EX4" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="EY4" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="EZ4" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="FA4" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="FB4" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="FC4" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="FD4" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="FE4" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FF4" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="FG4" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="FH4" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="FI4" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="FJ4" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="FK4" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="FL4" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="FM4" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="FN4" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="FO4" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="FP4" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="FQ4" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="FR4" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="FS4" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="FT4" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="FU4" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" ht="72" spans="1:177">
       <c r="A5" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E5" s="1">
         <v>1379</v>
@@ -4227,516 +4249,516 @@
         <v>1111</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="O5" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P5" s="1">
         <v>1379</v>
       </c>
       <c r="Q5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV5" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V5" s="1" t="s">
+      <c r="AW5" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="W5" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AX5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY5" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AL5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AZ5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BD5" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AP5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AV5" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="BE5" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BK5" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BL5" s="1">
         <v>78293</v>
       </c>
       <c r="BM5" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BN5" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BQ5" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BS5" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BU5" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BX5" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BY5" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CA5" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="CB5" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="CC5" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="CD5" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CE5" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CF5" s="1">
         <v>10297999</v>
       </c>
       <c r="CG5" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="CI5" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="CJ5" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CL5" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CM5" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="CN5" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="CO5" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CQ5" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="CS5" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CU5" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CV5" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CW5" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CX5" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="CY5" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CZ5" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="DA5" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="DB5" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="DC5" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="DD5" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="DE5" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="DF5" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="DG5" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="DH5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="DI5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="DJ5" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="DI5" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="DJ5" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="DK5" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="DL5" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DM5" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DN5" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DO5" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DP5" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="DQ5" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="DR5" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="DS5" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DT5" s="1">
         <v>77890600</v>
       </c>
       <c r="DU5" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="DV5" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DW5" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="DX5" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="DY5" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="DZ5" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="EA5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="EB5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="EC5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="ED5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="EE5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="EF5" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="EB5" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="EC5" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="ED5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="EE5" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="EF5" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="EG5" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="EH5" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="EI5" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="EJ5" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="EK5" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="EL5" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="EM5" s="1">
         <v>24</v>
       </c>
       <c r="EN5" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="EO5" s="1">
         <v>1000</v>
       </c>
       <c r="EP5" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="EQ5" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="ER5" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="ES5" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="ET5" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="EU5" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="EW5" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EX5" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="EY5" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="EZ5" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="FA5" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="FB5" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="FC5" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="FD5" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="FE5" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FF5" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="FG5" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="FH5" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="FI5" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="FJ5" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="FK5" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="FL5" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="FM5" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="FN5" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="FO5" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="FP5" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="FQ5" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="FR5" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="FS5" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="FT5" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="FU5" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" ht="72" spans="1:177">
       <c r="A6" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E6" s="1">
         <v>1379</v>
@@ -4745,516 +4767,516 @@
         <v>1111</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="O6" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P6" s="1">
         <v>1379</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV6" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V6" s="1" t="s">
+      <c r="AW6" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="W6" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK6" s="4" t="s">
+      <c r="AX6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY6" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AL6" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AZ6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BD6" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AP6" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="BE6" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BL6" s="1">
         <v>78293</v>
       </c>
       <c r="BM6" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BN6" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BO6" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BQ6" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BS6" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BU6" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BW6" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BX6" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BY6" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="CB6" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="CC6" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="CD6" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CE6" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CF6" s="1">
         <v>10297999</v>
       </c>
       <c r="CG6" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="CI6" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="CJ6" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CL6" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CM6" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="CN6" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="CO6" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CP6" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CQ6" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CR6" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="CS6" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CT6" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CU6" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CV6" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CW6" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CX6" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="CY6" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CZ6" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="DA6" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="DB6" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="DC6" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="DD6" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="DE6" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="DF6" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="DG6" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="DH6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="DI6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="DJ6" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="DI6" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="DJ6" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="DK6" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="DL6" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DM6" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DN6" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DO6" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DP6" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="DQ6" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="DR6" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="DS6" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DT6" s="1">
         <v>77890600</v>
       </c>
       <c r="DU6" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="DV6" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DW6" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="DX6" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="DY6" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="DZ6" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="EA6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="EB6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="EC6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="ED6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="EE6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="EF6" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="EB6" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="EC6" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="ED6" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="EE6" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="EF6" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="EG6" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="EH6" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="EI6" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="EJ6" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="EK6" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="EL6" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="EM6" s="1">
         <v>24</v>
       </c>
       <c r="EN6" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="EO6" s="1">
         <v>1000</v>
       </c>
       <c r="EP6" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="EQ6" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="ER6" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="ES6" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="ET6" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="EU6" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="EW6" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EX6" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="EY6" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="EZ6" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="FA6" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="FB6" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="FC6" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="FD6" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="FE6" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FF6" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="FG6" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="FH6" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="FI6" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="FJ6" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="FK6" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="FL6" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="FM6" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="FN6" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="FO6" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="FP6" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="FQ6" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="FR6" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="FS6" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="FT6" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="FU6" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" ht="72" spans="1:177">
       <c r="A7" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E7" s="1">
         <v>1379</v>
@@ -5263,502 +5285,502 @@
         <v>1111</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="O7" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P7" s="1">
         <v>1379</v>
       </c>
       <c r="Q7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV7" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V7" s="1" t="s">
+      <c r="AW7" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="W7" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK7" s="4" t="s">
+      <c r="AX7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AL7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AO7" s="1" t="s">
+      <c r="AZ7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BD7" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AP7" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT7" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AU7" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="BE7" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BJ7" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BK7" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BL7" s="1">
         <v>78293</v>
       </c>
       <c r="BM7" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BN7" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BO7" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BQ7" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BW7" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BX7" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BY7" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="CB7" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="CC7" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="CD7" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CE7" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CF7" s="1">
         <v>10297999</v>
       </c>
       <c r="CG7" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="CI7" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="CJ7" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CK7" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CL7" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CM7" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="CN7" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="CO7" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CP7" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CQ7" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CR7" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="CS7" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CT7" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CU7" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CV7" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CW7" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CX7" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="CY7" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CZ7" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="DA7" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="DB7" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="DC7" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="DD7" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="DE7" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="DF7" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="DG7" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="DH7" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="DI7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="DJ7" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="DI7" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="DJ7" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="DK7" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="DL7" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DM7" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DN7" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DO7" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DP7" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="DQ7" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="DR7" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="DS7" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DT7" s="1">
         <v>77890600</v>
       </c>
       <c r="DU7" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="DV7" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DW7" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="DX7" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="DY7" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="DZ7" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="EA7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="EB7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="EC7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="ED7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="EE7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="EF7" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="EB7" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="EC7" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="ED7" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="EE7" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="EF7" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="EG7" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="EH7" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="EI7" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="EJ7" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="EK7" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="EL7" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="EM7" s="1">
         <v>24</v>
       </c>
       <c r="EN7" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="EO7" s="1">
         <v>1000</v>
       </c>
       <c r="EP7" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="EQ7" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="ER7" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="ES7" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="ET7" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="EU7" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="EW7" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EX7" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="EY7" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="EZ7" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="FA7" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="FB7" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="FC7" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="FD7" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="FE7" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="FF7" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="FG7" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="FH7" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="FI7" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="FJ7" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="FK7" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="FL7" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="FM7" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="FN7" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="FO7" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="FP7" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="FQ7" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="FR7" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="FS7" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="FT7" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="FU7" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>username</t>
   </si>
@@ -53,6 +53,48 @@
     <t>currentDomesticAccountBBAN</t>
   </si>
   <si>
+    <t>personal_account_bban</t>
+  </si>
+  <si>
+    <t>personal_account_name</t>
+  </si>
+  <si>
+    <t>second_personal_account_name</t>
+  </si>
+  <si>
+    <t>second_personal_account_bban</t>
+  </si>
+  <si>
+    <t>third_personal_account_bban</t>
+  </si>
+  <si>
+    <t>third_personal_account_name</t>
+  </si>
+  <si>
+    <t>saving_account_bban</t>
+  </si>
+  <si>
+    <t>search_purpose</t>
+  </si>
+  <si>
+    <t>saving_account_name</t>
+  </si>
+  <si>
+    <t>credit_card_name</t>
+  </si>
+  <si>
+    <t>loan_account_bban</t>
+  </si>
+  <si>
+    <t>loan_account_name</t>
+  </si>
+  <si>
+    <t>term_deposit_bban</t>
+  </si>
+  <si>
+    <t>term_deposit_name</t>
+  </si>
+  <si>
     <t>Osir ANOEV</t>
   </si>
   <si>
@@ -74,10 +116,52 @@
     <t>.</t>
   </si>
   <si>
+    <t>205-9031004419532-81</t>
+  </si>
+  <si>
+    <t>Foreign currency payment accounts</t>
+  </si>
+  <si>
+    <t>Devizni platni račun</t>
+  </si>
+  <si>
+    <t>205-9031004417882-84</t>
+  </si>
+  <si>
+    <t>205-9001007790944-88</t>
+  </si>
+  <si>
+    <t>Payment account with basic services</t>
+  </si>
+  <si>
+    <t>205-9011008384007-23</t>
+  </si>
+  <si>
+    <t>Naknada za TR</t>
+  </si>
+  <si>
+    <t>A vista deposit account</t>
+  </si>
+  <si>
+    <t>Visa prepaid</t>
+  </si>
+  <si>
+    <t>Term deposits</t>
+  </si>
+  <si>
     <t>Enil ČIĆVI</t>
   </si>
   <si>
     <t>Tekući račun</t>
+  </si>
+  <si>
+    <t>205-9001001626239-86</t>
+  </si>
+  <si>
+    <t>205-0049032401456-48</t>
+  </si>
+  <si>
+    <t>Cash loans</t>
   </si>
   <si>
     <t>Aor IĆVR</t>
@@ -96,7 +180,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,12 +205,6 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -137,6 +215,23 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -595,156 +690,162 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,13 +1167,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -1082,121 +1183,329 @@
     <col min="6" max="6" width="17.5555555555556" customWidth="1"/>
     <col min="7" max="7" width="33.8888888888889" customWidth="1"/>
     <col min="8" max="8" width="28.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="23.4259259259259" style="1" customWidth="1"/>
+    <col min="10" max="12" width="30.4259259259259" style="1" customWidth="1"/>
+    <col min="13" max="13" width="38" style="1" customWidth="1"/>
+    <col min="14" max="14" width="30.1111111111111" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.8888888888889" style="1" customWidth="1"/>
+    <col min="16" max="17" width="24.6666666666667" style="1" customWidth="1"/>
+    <col min="18" max="19" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="20" max="20" width="31.1111111111111" style="1" customWidth="1"/>
+    <col min="21" max="21" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="22" max="22" width="19.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="1" spans="1:22">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" customFormat="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+    <row r="2" customFormat="1" spans="1:22">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
+    <row r="3" customFormat="1" spans="1:22">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
+    <row r="4" customFormat="1" spans="1:22">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="2:2">
-      <c r="B5" s="6"/>
+    <row r="5" customFormat="1" spans="2:22">
+      <c r="B5" s="5"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
     </row>
-    <row r="6" customFormat="1" spans="2:2">
-      <c r="B6" s="6"/>
+    <row r="6" customFormat="1" spans="2:22">
+      <c r="B6" s="5"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://uat.dbp.nlb.si/web-retail/login" tooltip="https://uat.dbp.nlb.si/web-retail/login"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://uat.dbp.nlb.si/web-retail/login" tooltip="https://uat.dbp.nlb.si/web-retail/login"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://uat.dbp.nlb.si/web-retail/login" tooltip="https://uat.dbp.nlb.si/web-retail/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1169,8 +1169,8 @@
   <sheetPr/>
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -1169,8 +1169,8 @@
   <sheetPr/>
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
   <si>
     <t>username</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>205-9001021348944-31</t>
+  </si>
+  <si>
+    <t>Drre ĆEVMI</t>
   </si>
 </sst>
 </file>
@@ -1169,14 +1172,14 @@
   <sheetPr/>
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="2" max="2" width="35.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="7.75" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="22.4444444444444" customWidth="1"/>
@@ -1467,12 +1470,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="2:22">
-      <c r="B5" s="5"/>
+    <row r="5" customFormat="1" spans="1:22">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1506,6 +1530,7 @@
     <hyperlink ref="B2" r:id="rId1" display="https://uat.dbp.nlb.si/web-retail/login" tooltip="https://uat.dbp.nlb.si/web-retail/login"/>
     <hyperlink ref="B3" r:id="rId1" display="https://uat.dbp.nlb.si/web-retail/login" tooltip="https://uat.dbp.nlb.si/web-retail/login"/>
     <hyperlink ref="B4" r:id="rId1" display="https://uat.dbp.nlb.si/web-retail/login" tooltip="https://uat.dbp.nlb.si/web-retail/login"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://uat.dbp.nlb.si/web-retail/login" tooltip="https://uat.dbp.nlb.si/web-retail/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="49">
   <si>
     <t>username</t>
   </si>
@@ -158,19 +158,22 @@
     <t>205-9001001626239-86</t>
   </si>
   <si>
+    <t>Aor IĆVR</t>
+  </si>
+  <si>
+    <t>205-9001021348944-31</t>
+  </si>
+  <si>
+    <t>Drre ĆEVMI</t>
+  </si>
+  <si>
+    <t>Jail ĆEVGIMILĆ</t>
+  </si>
+  <si>
     <t>205-0049032401456-48</t>
   </si>
   <si>
-    <t>Cash loans</t>
-  </si>
-  <si>
-    <t>Aor IĆVR</t>
-  </si>
-  <si>
-    <t>205-9001021348944-31</t>
-  </si>
-  <si>
-    <t>Drre ĆEVMI</t>
+    <t>Gotovinski kredit</t>
   </si>
 </sst>
 </file>
@@ -214,9 +217,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,9 +242,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -693,10 +696,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1172,8 +1175,8 @@
   <sheetPr/>
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1390,10 +1393,10 @@
         <v>28</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>28</v>
@@ -1404,7 +1407,7 @@
     </row>
     <row r="4" customFormat="1" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>23</v>
@@ -1425,7 +1428,7 @@
         <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>28</v>
@@ -1472,7 +1475,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:22">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
@@ -1489,41 +1492,116 @@
       <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" customFormat="1" spans="2:22">
-      <c r="B6" s="5"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+    <row r="6" s="1" customFormat="1" spans="1:22">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1531,6 +1609,7 @@
     <hyperlink ref="B3" r:id="rId1" display="https://uat.dbp.nlb.si/web-retail/login" tooltip="https://uat.dbp.nlb.si/web-retail/login"/>
     <hyperlink ref="B4" r:id="rId1" display="https://uat.dbp.nlb.si/web-retail/login" tooltip="https://uat.dbp.nlb.si/web-retail/login"/>
     <hyperlink ref="B5" r:id="rId1" display="https://uat.dbp.nlb.si/web-retail/login" tooltip="https://uat.dbp.nlb.si/web-retail/login"/>
+    <hyperlink ref="B6" r:id="rId1" display="https://uat.dbp.nlb.si/web-retail/login" tooltip="https://uat.dbp.nlb.si/web-retail/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="23040" windowHeight="9467"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="48">
   <si>
     <t>username</t>
   </si>
@@ -140,13 +140,10 @@
     <t>Naknada za TR</t>
   </si>
   <si>
-    <t>A vista deposit account</t>
+    <t>A vista depozitni račun</t>
   </si>
   <si>
     <t>Visa prepaid</t>
-  </si>
-  <si>
-    <t>Term deposits</t>
   </si>
   <si>
     <t>Enil ČIĆVI</t>
@@ -1175,8 +1172,8 @@
   <sheetPr/>
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1334,12 +1331,12 @@
         <v>26</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>23</v>
@@ -1357,22 +1354,22 @@
         <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>28</v>
@@ -1407,7 +1404,7 @@
     </row>
     <row r="4" customFormat="1" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>23</v>
@@ -1425,22 +1422,22 @@
         <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>28</v>
@@ -1475,7 +1472,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:22">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
@@ -1499,10 +1496,10 @@
         <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>28</v>
@@ -1537,7 +1534,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>23</v>
@@ -1555,11 +1552,11 @@
         <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1591,10 +1588,10 @@
         <v>28</v>
       </c>
       <c r="S6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>28</v>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>username</t>
   </si>
@@ -116,21 +116,18 @@
     <t>.</t>
   </si>
   <si>
+    <t>205-9001007790944-88</t>
+  </si>
+  <si>
+    <t>Tekući račun</t>
+  </si>
+  <si>
+    <t>Devizni platni račun</t>
+  </si>
+  <si>
     <t>205-9031004419532-81</t>
   </si>
   <si>
-    <t>Foreign currency payment accounts</t>
-  </si>
-  <si>
-    <t>Devizni platni račun</t>
-  </si>
-  <si>
-    <t>205-9031004417882-84</t>
-  </si>
-  <si>
-    <t>205-9001007790944-88</t>
-  </si>
-  <si>
     <t>Payment account with basic services</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
   </si>
   <si>
     <t>Enil ČIĆVI</t>
-  </si>
-  <si>
-    <t>Tekući račun</t>
   </si>
   <si>
     <t>205-9001001626239-86</t>
@@ -1173,7 +1167,7 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1304,22 +1298,22 @@
         <v>32</v>
       </c>
       <c r="M2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>28</v>
@@ -1331,12 +1325,12 @@
         <v>26</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>23</v>
@@ -1354,46 +1348,46 @@
         <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>28</v>
@@ -1404,7 +1398,7 @@
     </row>
     <row r="4" customFormat="1" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>23</v>
@@ -1422,10 +1416,10 @@
         <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>28</v>
@@ -1434,10 +1428,10 @@
         <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>28</v>
@@ -1472,7 +1466,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:22">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
@@ -1492,10 +1486,10 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9467"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="49">
   <si>
     <t>username</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Tekući račun</t>
+  </si>
+  <si>
+    <t>205-9001010537788-94</t>
   </si>
   <si>
     <t>205-9001001626239-86</t>
@@ -1172,8 +1175,12 @@
   <sheetPr/>
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1357,7 +1364,7 @@
         <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>28</v>
@@ -1369,7 +1376,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>28</v>
@@ -1404,7 +1411,7 @@
     </row>
     <row r="4" customFormat="1" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>23</v>
@@ -1425,7 +1432,7 @@
         <v>40</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>28</v>
@@ -1437,7 +1444,7 @@
         <v>40</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>28</v>
@@ -1472,7 +1479,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:22">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
@@ -1499,7 +1506,7 @@
         <v>40</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>28</v>
@@ -1534,7 +1541,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>23</v>
@@ -1555,7 +1562,7 @@
         <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>28</v>
@@ -1588,10 +1595,10 @@
         <v>28</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>28</v>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -1180,7 +1180,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
   <si>
     <t>username</t>
   </si>
@@ -80,6 +80,9 @@
     <t>saving_account_name</t>
   </si>
   <si>
+    <t>saving_account_2_bban</t>
+  </si>
+  <si>
     <t>credit_card_name</t>
   </si>
   <si>
@@ -134,7 +137,7 @@
     <t>Payment account with basic services</t>
   </si>
   <si>
-    <t>205-9011008384007-23</t>
+    <t>9011008384007</t>
   </si>
   <si>
     <t>Naknada za TR</t>
@@ -852,6 +855,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,14 +1179,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1199,13 +1205,13 @@
     <col min="14" max="14" width="30.1111111111111" style="1" customWidth="1"/>
     <col min="15" max="15" width="19.8888888888889" style="1" customWidth="1"/>
     <col min="16" max="17" width="24.6666666666667" style="1" customWidth="1"/>
-    <col min="18" max="19" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="20" max="20" width="31.1111111111111" style="1" customWidth="1"/>
-    <col min="21" max="21" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="22" max="22" width="19.1111111111111" style="1" customWidth="1"/>
+    <col min="18" max="20" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="21" max="21" width="31.1111111111111" style="1" customWidth="1"/>
+    <col min="22" max="22" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="23" max="23" width="19.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:22">
+    <row r="1" customFormat="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1266,7 @@
       <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -1272,339 +1278,348 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" customFormat="1" spans="1:22">
+    <row r="2" customFormat="1" spans="1:23">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="8" t="s">
         <v>35</v>
       </c>
+      <c r="O2" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="P2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>28</v>
+      <c r="S2" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="W2" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" customFormat="1" spans="1:22">
+    <row r="3" customFormat="1" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:23">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>28</v>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:22">
-      <c r="A4" s="1" t="s">
+    <row r="5" customFormat="1" spans="1:23">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="M5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:23">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:22">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:22">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
   <si>
     <t>username</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>A vista depozitni račun</t>
+  </si>
+  <si>
+    <t>9011008395360</t>
   </si>
   <si>
     <t>Visa prepaid</t>
@@ -1186,7 +1189,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
+      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1335,10 +1338,10 @@
         <v>38</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>29</v>
@@ -1355,7 +1358,7 @@
     </row>
     <row r="3" customFormat="1" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>24</v>
@@ -1373,22 +1376,22 @@
         <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>29</v>
@@ -1424,7 +1427,7 @@
     </row>
     <row r="4" customFormat="1" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
@@ -1442,10 +1445,10 @@
         <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>29</v>
@@ -1454,10 +1457,10 @@
         <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>29</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:23">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>24</v>
@@ -1517,10 +1520,10 @@
         <v>29</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>29</v>
@@ -1556,7 +1559,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:23">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>24</v>
@@ -1574,10 +1577,10 @@
         <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>29</v>
@@ -1610,10 +1613,10 @@
         <v>29</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>29</v>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
   <si>
     <t>username</t>
   </si>
@@ -74,6 +74,9 @@
     <t>saving_account_bban</t>
   </si>
   <si>
+    <t>saving_account_2_bban</t>
+  </si>
+  <si>
     <t>search_purpose</t>
   </si>
   <si>
@@ -134,7 +137,10 @@
     <t>Payment account with basic services</t>
   </si>
   <si>
-    <t>205-9011008384007-23</t>
+    <t>9011008384007</t>
+  </si>
+  <si>
+    <t>9011008395360</t>
   </si>
   <si>
     <t>Naknada za TR</t>
@@ -852,6 +858,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,14 +1182,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1198,14 +1207,14 @@
     <col min="13" max="13" width="38" style="1" customWidth="1"/>
     <col min="14" max="14" width="30.1111111111111" style="1" customWidth="1"/>
     <col min="15" max="15" width="19.8888888888889" style="1" customWidth="1"/>
-    <col min="16" max="17" width="24.6666666666667" style="1" customWidth="1"/>
-    <col min="18" max="19" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="20" max="20" width="31.1111111111111" style="1" customWidth="1"/>
-    <col min="21" max="21" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="22" max="22" width="19.1111111111111" style="1" customWidth="1"/>
+    <col min="16" max="18" width="24.6666666666667" style="1" customWidth="1"/>
+    <col min="19" max="20" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="21" max="21" width="31.1111111111111" style="1" customWidth="1"/>
+    <col min="22" max="22" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="23" max="23" width="19.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:22">
+    <row r="1" customFormat="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1254,13 +1263,13 @@
       <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -1272,339 +1281,348 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" customFormat="1" spans="1:22">
+    <row r="2" customFormat="1" spans="1:23">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="P2" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="Q2" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="W2" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" customFormat="1" spans="1:22">
+    <row r="3" customFormat="1" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:23">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>28</v>
+      <c r="H4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:22">
-      <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="5" customFormat="1" spans="1:23">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="M5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:23">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:22">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:22">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,6 +119,9 @@
     <t>.</t>
   </si>
   <si>
+    <t>205-9001007790944-88</t>
+  </si>
+  <si>
     <t>205-9031004419532-81</t>
   </si>
   <si>
@@ -129,9 +132,6 @@
   </si>
   <si>
     <t>205-9031004417882-84</t>
-  </si>
-  <si>
-    <t>205-9001007790944-88</t>
   </si>
   <si>
     <t>Payment account with basic services</t>
@@ -215,6 +215,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -230,12 +236,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -705,7 +705,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -845,13 +845,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1185,11 +1185,11 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1260,16 +1260,16 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -1307,23 +1307,23 @@
       <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
+      <c r="H2" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>35</v>
@@ -1369,10 +1369,10 @@
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1438,10 +1438,10 @@
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1507,10 +1507,10 @@
       <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1561,7 +1561,7 @@
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
   <si>
     <t>username</t>
   </si>
@@ -86,6 +86,9 @@
     <t>credit_card_name</t>
   </si>
   <si>
+    <t>credit_card_number</t>
+  </si>
+  <si>
     <t>loan_account_bban</t>
   </si>
   <si>
@@ -150,6 +153,9 @@
   </si>
   <si>
     <t>Visa prepaid</t>
+  </si>
+  <si>
+    <t>4431********0118</t>
   </si>
   <si>
     <t>Enil ČIĆVI</t>
@@ -1182,14 +1188,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1208,13 +1214,13 @@
     <col min="14" max="14" width="30.1111111111111" style="1" customWidth="1"/>
     <col min="15" max="15" width="19.8888888888889" style="1" customWidth="1"/>
     <col min="16" max="18" width="24.6666666666667" style="1" customWidth="1"/>
-    <col min="19" max="20" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="21" max="21" width="31.1111111111111" style="1" customWidth="1"/>
-    <col min="22" max="22" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="23" max="23" width="19.1111111111111" style="1" customWidth="1"/>
+    <col min="19" max="21" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="22" max="22" width="31.1111111111111" style="1" customWidth="1"/>
+    <col min="23" max="23" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="24" max="24" width="19.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:23">
+    <row r="1" customFormat="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1284,345 +1290,354 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" customFormat="1" spans="1:23">
+    <row r="2" customFormat="1" spans="1:24">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="N2" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="W2" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="X2" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" customFormat="1" spans="1:23">
+    <row r="3" customFormat="1" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:23">
+    <row r="4" customFormat="1" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:23">
+    <row r="5" customFormat="1" spans="1:24">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:23">
+    <row r="6" s="1" customFormat="1" spans="1:24">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
   <si>
     <t>username</t>
   </si>
@@ -113,49 +113,52 @@
     <t>uat</t>
   </si>
   <si>
+    <t>9032022325800</t>
+  </si>
+  <si>
+    <t>Oročeni depozit</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>205-9001007790944-88</t>
+  </si>
+  <si>
+    <t>205-9031004419532-81</t>
+  </si>
+  <si>
+    <t>Foreign currency payment accounts</t>
+  </si>
+  <si>
+    <t>Devizni platni račun</t>
+  </si>
+  <si>
+    <t>205-9031004417882-84</t>
+  </si>
+  <si>
+    <t>Payment account with basic services</t>
+  </si>
+  <si>
+    <t>9011008384007</t>
+  </si>
+  <si>
+    <t>9011008395360</t>
+  </si>
+  <si>
+    <t>Naknada za TR</t>
+  </si>
+  <si>
+    <t>A vista depozitni račun</t>
+  </si>
+  <si>
+    <t>Visa prepaid</t>
+  </si>
+  <si>
+    <t>4431********0118</t>
+  </si>
+  <si>
     <t>205-9032022325800-66</t>
-  </si>
-  <si>
-    <t>Oročeni depozit</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>205-9001007790944-88</t>
-  </si>
-  <si>
-    <t>205-9031004419532-81</t>
-  </si>
-  <si>
-    <t>Foreign currency payment accounts</t>
-  </si>
-  <si>
-    <t>Devizni platni račun</t>
-  </si>
-  <si>
-    <t>205-9031004417882-84</t>
-  </si>
-  <si>
-    <t>Payment account with basic services</t>
-  </si>
-  <si>
-    <t>9011008384007</t>
-  </si>
-  <si>
-    <t>9011008395360</t>
-  </si>
-  <si>
-    <t>Naknada za TR</t>
-  </si>
-  <si>
-    <t>A vista depozitni račun</t>
-  </si>
-  <si>
-    <t>Visa prepaid</t>
-  </si>
-  <si>
-    <t>4431********0118</t>
   </si>
   <si>
     <t>Enil ČIĆVI</t>
@@ -864,6 +867,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
@@ -1191,11 +1197,11 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1307,7 +1313,7 @@
       <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1337,10 +1343,10 @@
       <c r="N2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>38</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -1362,7 +1368,7 @@
         <v>30</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="X2" s="8" t="s">
         <v>29</v>
@@ -1370,7 +1376,7 @@
     </row>
     <row r="3" customFormat="1" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
@@ -1388,22 +1394,22 @@
         <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>30</v>
@@ -1440,7 +1446,7 @@
     </row>
     <row r="4" customFormat="1" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>25</v>
@@ -1458,10 +1464,10 @@
         <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>30</v>
@@ -1470,10 +1476,10 @@
         <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>30</v>
@@ -1510,7 +1516,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:24">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>25</v>
@@ -1534,10 +1540,10 @@
         <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>30</v>
@@ -1574,7 +1580,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:24">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>25</v>
@@ -1592,10 +1598,10 @@
         <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
@@ -1628,10 +1634,10 @@
         <v>30</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>30</v>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
   <si>
     <t>username</t>
   </si>
@@ -47,6 +47,15 @@
     <t>termDepositName</t>
   </si>
   <si>
+    <t>term_deposit_account_details_opening_date</t>
+  </si>
+  <si>
+    <t>term_deposit_account_details_expiration_date</t>
+  </si>
+  <si>
+    <t>maturity_account</t>
+  </si>
+  <si>
     <t>currentDomesticAccountName</t>
   </si>
   <si>
@@ -65,12 +74,6 @@
     <t>second_personal_account_bban</t>
   </si>
   <si>
-    <t>third_personal_account_bban</t>
-  </si>
-  <si>
-    <t>third_personal_account_name</t>
-  </si>
-  <si>
     <t>saving_account_bban</t>
   </si>
   <si>
@@ -119,6 +122,12 @@
     <t>Oročeni depozit</t>
   </si>
   <si>
+    <t>15. 1. 2016</t>
+  </si>
+  <si>
+    <t>15. 1. 2028</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
@@ -134,10 +143,7 @@
     <t>Devizni platni račun</t>
   </si>
   <si>
-    <t>205-9031004417882-84</t>
-  </si>
-  <si>
-    <t>Payment account with basic services</t>
+    <t>RS35 2059 0310 0441 7882 84</t>
   </si>
   <si>
     <t>9011008384007</t>
@@ -162,6 +168,18 @@
   </si>
   <si>
     <t>Enil ČIĆVI</t>
+  </si>
+  <si>
+    <t>9032030694661</t>
+  </si>
+  <si>
+    <t>8. 6. 2022</t>
+  </si>
+  <si>
+    <t>8. 6. 2028</t>
+  </si>
+  <si>
+    <t>9031008901983</t>
   </si>
   <si>
     <t>Tekući račun</t>
@@ -201,7 +219,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,27 +242,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -252,6 +271,11 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -711,7 +735,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,128 +744,128 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -854,8 +878,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -869,10 +896,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1194,14 +1227,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1212,21 +1245,21 @@
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="22.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="17.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="33.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="28.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="23.4259259259259" style="1" customWidth="1"/>
-    <col min="10" max="12" width="30.4259259259259" style="1" customWidth="1"/>
-    <col min="13" max="13" width="38" style="1" customWidth="1"/>
-    <col min="14" max="14" width="30.1111111111111" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.8888888888889" style="1" customWidth="1"/>
-    <col min="16" max="18" width="24.6666666666667" style="1" customWidth="1"/>
-    <col min="19" max="21" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="22" max="22" width="31.1111111111111" style="1" customWidth="1"/>
-    <col min="23" max="23" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="24" max="24" width="19.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="44.1111111111111" customWidth="1"/>
+    <col min="9" max="10" width="33.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="28.8888888888889" customWidth="1"/>
+    <col min="12" max="12" width="23.4259259259259" style="1" customWidth="1"/>
+    <col min="13" max="15" width="30.4259259259259" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.8888888888889" style="1" customWidth="1"/>
+    <col min="17" max="19" width="24.6666666666667" style="1" customWidth="1"/>
+    <col min="20" max="22" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="23" max="23" width="31.1111111111111" style="1" customWidth="1"/>
+    <col min="24" max="24" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="25" max="25" width="19.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:24">
+    <row r="1" customFormat="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1269,22 +1302,22 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="10" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -1299,351 +1332,345 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" customFormat="1" spans="1:24">
+    <row r="2" customFormat="1" spans="1:25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="E2" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="M2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="N2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="O2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="Q2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="S2" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="T2" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="U2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="1" t="s">
+    </row>
+    <row r="3" customFormat="1" spans="1:25">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>29</v>
+      <c r="G3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:24">
-      <c r="A3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="4" customFormat="1" spans="1:25">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>30</v>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:24">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="5" customFormat="1" spans="1:25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>30</v>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:24">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:25">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:24">
-      <c r="A6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1230,11 +1230,11 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1230,11 +1230,11 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
   <si>
     <t>username</t>
   </si>
@@ -92,6 +92,12 @@
     <t>credit_card_number</t>
   </si>
   <si>
+    <t>credit_card_2_name</t>
+  </si>
+  <si>
+    <t>credit_card_2_number</t>
+  </si>
+  <si>
     <t>loan_account_bban</t>
   </si>
   <si>
@@ -162,6 +168,12 @@
   </si>
   <si>
     <t>4431********0118</t>
+  </si>
+  <si>
+    <t>Visa revolving card</t>
+  </si>
+  <si>
+    <t>4176********8476</t>
   </si>
   <si>
     <t>205-9032022325800-66</t>
@@ -1227,14 +1239,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1253,13 +1265,13 @@
     <col min="13" max="15" width="30.4259259259259" style="1" customWidth="1"/>
     <col min="16" max="16" width="19.8888888888889" style="1" customWidth="1"/>
     <col min="17" max="19" width="24.6666666666667" style="1" customWidth="1"/>
-    <col min="20" max="22" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="23" max="23" width="31.1111111111111" style="1" customWidth="1"/>
-    <col min="24" max="24" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="25" max="25" width="19.1111111111111" style="1" customWidth="1"/>
+    <col min="20" max="24" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="25" max="25" width="31.1111111111111" style="1" customWidth="1"/>
+    <col min="26" max="26" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="27" max="27" width="19.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:25">
+    <row r="1" customFormat="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1335,342 +1347,360 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" customFormat="1" spans="1:25">
+    <row r="2" customFormat="1" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:27">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="E3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:25">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U3" s="1"/>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
       <c r="X3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:25">
+    <row r="4" customFormat="1" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:25">
+    <row r="5" customFormat="1" spans="1:27">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U5" s="1"/>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
       <c r="X5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:25">
+    <row r="6" s="1" customFormat="1" spans="1:27">
       <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="65">
   <si>
     <t>username</t>
   </si>
@@ -140,7 +140,7 @@
     <t>205-9001007790944-88</t>
   </si>
   <si>
-    <t>205-9031004419532-81</t>
+    <t>RS35 2059 0310 0441 9532 81</t>
   </si>
   <si>
     <t>Foreign currency payment accounts</t>
@@ -200,13 +200,16 @@
     <t>205-9001010537788-94</t>
   </si>
   <si>
+    <t>RS35 2059 0310 0890 1983 32</t>
+  </si>
+  <si>
+    <t>Aor IĆVR</t>
+  </si>
+  <si>
+    <t>205-9001021348944-31</t>
+  </si>
+  <si>
     <t>205-9001001626239-86</t>
-  </si>
-  <si>
-    <t>Aor IĆVR</t>
-  </si>
-  <si>
-    <t>205-9001021348944-31</t>
   </si>
   <si>
     <t>Drre ĆEVMI</t>
@@ -1242,11 +1245,11 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1261,7 +1264,7 @@
     <col min="8" max="8" width="44.1111111111111" customWidth="1"/>
     <col min="9" max="10" width="33.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="28.8888888888889" customWidth="1"/>
-    <col min="12" max="12" width="23.4259259259259" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.8888888888889" style="1" customWidth="1"/>
     <col min="13" max="15" width="30.4259259259259" style="1" customWidth="1"/>
     <col min="16" max="16" width="19.8888888888889" style="1" customWidth="1"/>
     <col min="17" max="19" width="24.6666666666667" style="1" customWidth="1"/>
@@ -1550,7 +1553,7 @@
         <v>55</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>35</v>
@@ -1583,7 +1586,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:27">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>28</v>
@@ -1610,7 +1613,7 @@
         <v>55</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>35</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:27">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>28</v>
@@ -1664,7 +1667,7 @@
         <v>55</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>35</v>
@@ -1691,10 +1694,10 @@
         <v>35</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>35</v>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -1245,11 +1245,11 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -1245,11 +1245,11 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="10187"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="68">
   <si>
     <t>username</t>
   </si>
@@ -74,6 +74,9 @@
     <t>second_personal_account_bban</t>
   </si>
   <si>
+    <t>second_personal_account_iban</t>
+  </si>
+  <si>
     <t>saving_account_bban</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
     <t>.</t>
   </si>
   <si>
+    <t>Tekući račun</t>
+  </si>
+  <si>
     <t>205-9001007790944-88</t>
   </si>
   <si>
@@ -149,6 +155,9 @@
     <t>Devizni platni račun</t>
   </si>
   <si>
+    <t>205-9031004417882-84</t>
+  </si>
+  <si>
     <t>RS35 2059 0310 0441 7882 84</t>
   </si>
   <si>
@@ -194,9 +203,6 @@
     <t>9031008901983</t>
   </si>
   <si>
-    <t>Tekući račun</t>
-  </si>
-  <si>
     <t>205-9001010537788-94</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
   </si>
   <si>
     <t>Drre ĆEVMI</t>
+  </si>
+  <si>
+    <t>205-9001007839862-95</t>
   </si>
   <si>
     <t>Jail ĆEVGIMILĆ</t>
@@ -283,14 +292,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -917,7 +926,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
@@ -1242,14 +1251,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1266,15 +1275,15 @@
     <col min="11" max="11" width="28.8888888888889" customWidth="1"/>
     <col min="12" max="12" width="27.8888888888889" style="1" customWidth="1"/>
     <col min="13" max="15" width="30.4259259259259" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.8888888888889" style="1" customWidth="1"/>
-    <col min="17" max="19" width="24.6666666666667" style="1" customWidth="1"/>
-    <col min="20" max="24" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="25" max="25" width="31.1111111111111" style="1" customWidth="1"/>
-    <col min="26" max="26" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="27" max="27" width="19.1111111111111" style="1" customWidth="1"/>
+    <col min="16" max="17" width="19.8888888888889" style="1" customWidth="1"/>
+    <col min="18" max="20" width="24.6666666666667" style="1" customWidth="1"/>
+    <col min="21" max="25" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="26" max="26" width="31.1111111111111" style="1" customWidth="1"/>
+    <col min="27" max="27" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="28" max="28" width="19.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:27">
+    <row r="1" customFormat="1" spans="1:28">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1320,22 +1329,22 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -1356,354 +1365,375 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" customFormat="1" spans="1:27">
+    <row r="2" customFormat="1" spans="1:28">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:28">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="E3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="G3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:27">
-      <c r="A3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:27">
+    <row r="4" customFormat="1" spans="1:28">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U4" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:27">
+    <row r="5" customFormat="1" spans="1:28">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U5" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="X5" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:27">
+    <row r="6" s="1" customFormat="1" spans="1:28">
       <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10187"/>
+    <workbookView windowWidth="23040" windowHeight="9467"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
   <si>
     <t>username</t>
   </si>
@@ -1254,11 +1254,11 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1275,7 +1275,8 @@
     <col min="11" max="11" width="28.8888888888889" customWidth="1"/>
     <col min="12" max="12" width="27.8888888888889" style="1" customWidth="1"/>
     <col min="13" max="15" width="30.4259259259259" style="1" customWidth="1"/>
-    <col min="16" max="17" width="19.8888888888889" style="1" customWidth="1"/>
+    <col min="16" max="16" width="44.5555555555556" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.8888888888889" style="1" customWidth="1"/>
     <col min="18" max="20" width="24.6666666666667" style="1" customWidth="1"/>
     <col min="21" max="25" width="33.2222222222222" style="1" customWidth="1"/>
     <col min="26" max="26" width="31.1111111111111" style="1" customWidth="1"/>
@@ -1507,7 +1508,9 @@
       <c r="Q3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="S3" s="1" t="s">
         <v>36</v>
       </c>
@@ -1579,7 +1582,9 @@
       <c r="Q4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="S4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1648,7 +1653,9 @@
       <c r="Q5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="S5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1712,6 +1719,9 @@
         <v>36</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="S6" s="1" t="s">
